--- a/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,26; 31,31</t>
+          <t>22,76; 31,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 20,5</t>
+          <t>9,08; 20,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,53; 24,39</t>
+          <t>16,83; 24,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 17,0</t>
+          <t>7,08; 16,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,15; 27,13</t>
+          <t>20,97; 26,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 17,22</t>
+          <t>9,7; 16,92</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,73; 25,69</t>
+          <t>18,69; 25,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 20,05</t>
+          <t>10,8; 20,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,64</t>
+          <t>9,22; 14,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,46</t>
+          <t>2,28; 6,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,94; 19,5</t>
+          <t>14,93; 19,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,78</t>
+          <t>7,15; 12,05</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,68</t>
+          <t>9,65; 14,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,76</t>
+          <t>5,68; 10,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,39</t>
+          <t>6,16; 10,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,12</t>
+          <t>3,87; 7,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 11,69</t>
+          <t>8,35; 11,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 8,18</t>
+          <t>5,35; 8,47</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,23</t>
+          <t>5,73; 10,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 31,14</t>
+          <t>5,85; 37,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,93</t>
+          <t>3,59; 7,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,98</t>
+          <t>2,67; 4,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,92</t>
+          <t>5,16; 8,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 20,55</t>
+          <t>4,78; 20,15</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,77</t>
+          <t>3,41; 7,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,17</t>
+          <t>2,76; 6,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,84</t>
+          <t>2,68; 6,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,79</t>
+          <t>0,97; 2,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,41</t>
+          <t>3,59; 6,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,05</t>
+          <t>2,08; 4,16</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,42</t>
+          <t>2,45; 5,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,85</t>
+          <t>1,82; 3,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,19</t>
+          <t>1,65; 4,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,76</t>
+          <t>0,99; 2,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,16</t>
+          <t>2,24; 4,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,84</t>
+          <t>1,5; 2,81</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,66</t>
+          <t>11,3; 13,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,98</t>
+          <t>7,12; 14,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,73</t>
+          <t>6,94; 8,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,62</t>
+          <t>3,12; 4,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,39; 10,82</t>
+          <t>9,44; 10,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,17</t>
+          <t>5,27; 9,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 31,46</t>
+          <t>22,73; 31,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,83; 24,63</t>
+          <t>17,13; 24,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,97; 26,99</t>
+          <t>20,97; 27,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 25,69</t>
+          <t>18,88; 26,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,66</t>
+          <t>9,55; 14,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 19,58</t>
+          <t>14,99; 19,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 14,82</t>
+          <t>9,47; 14,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,29</t>
+          <t>6,23; 10,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 11,54</t>
+          <t>8,26; 11,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,28</t>
+          <t>6,02; 10,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,14</t>
+          <t>3,64; 7,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 8,01</t>
+          <t>5,18; 8,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,86</t>
+          <t>3,5; 7,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,83</t>
+          <t>2,86; 6,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,65</t>
+          <t>3,58; 6,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,41</t>
+          <t>2,36; 5,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,13</t>
+          <t>1,65; 4,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,06</t>
+          <t>2,22; 4,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,3; 13,62</t>
+          <t>11,32; 13,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 8,88</t>
+          <t>6,98; 8,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,44; 10,86</t>
+          <t>9,36; 10,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,25</t>
+          <t>22,26; 31,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 20,88</t>
+          <t>9,13; 20,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,13; 24,74</t>
+          <t>16,53; 24,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 16,86</t>
+          <t>7,52; 17,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,97; 27,17</t>
+          <t>21,15; 27,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 16,92</t>
+          <t>9,33; 17,22</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,88; 26,32</t>
+          <t>18,73; 25,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 20,15</t>
+          <t>10,91; 20,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 14,71</t>
+          <t>9,5; 14,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,27</t>
+          <t>2,22; 6,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,99; 19,43</t>
+          <t>14,94; 19,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 12,05</t>
+          <t>6,81; 11,78</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 14,63</t>
+          <t>9,63; 14,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,53</t>
+          <t>5,96; 10,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,53</t>
+          <t>6,24; 10,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,35</t>
+          <t>3,79; 7,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 11,57</t>
+          <t>8,27; 11,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,47</t>
+          <t>5,32; 8,18</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,32</t>
+          <t>5,95; 10,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 37,79</t>
+          <t>6,08; 31,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,1</t>
+          <t>3,65; 6,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,97</t>
+          <t>2,63; 4,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,17</t>
+          <t>5,21; 7,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 20,15</t>
+          <t>4,81; 20,55</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,35</t>
+          <t>3,45; 7,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,11</t>
+          <t>2,77; 6,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,93</t>
+          <t>2,87; 6,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,58</t>
+          <t>0,96; 2,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,47</t>
+          <t>3,56; 6,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,16</t>
+          <t>2,12; 4,05</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,46</t>
+          <t>2,47; 5,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,9</t>
+          <t>1,76; 3,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,16</t>
+          <t>1,62; 4,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,69</t>
+          <t>1,01; 2,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,21</t>
+          <t>2,27; 4,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,81</t>
+          <t>1,5; 2,84</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,32; 13,51</t>
+          <t>11,42; 13,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,37</t>
+          <t>7,17; 14,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,98; 8,87</t>
+          <t>7,01; 8,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,53</t>
+          <t>3,16; 4,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,36; 10,78</t>
+          <t>9,39; 10,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,19</t>
+          <t>5,35; 9,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>11,91%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 20,5</t>
+          <t>8,22; 19,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 17,0</t>
+          <t>7,23; 16,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 17,22</t>
+          <t>8,49; 16,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 20,05</t>
+          <t>10,02; 18,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,46</t>
+          <t>1,64; 5,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,78</t>
+          <t>5,77; 10,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,76</t>
+          <t>5,74; 10,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,12</t>
+          <t>3,72; 6,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 8,18</t>
+          <t>5,18; 8,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>19,42%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,08; 31,14</t>
+          <t>5,67; 66,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,98</t>
+          <t>2,46; 4,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,14 +904,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 20,55</t>
+          <t>4,49; 51,38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,17</t>
+          <t>2,69; 5,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,79</t>
+          <t>0,97; 2,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,14 +984,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,05</t>
+          <t>2,06; 3,96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 5,42</t>
+          <t>2,07; 6,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,85</t>
+          <t>2,1; 5,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,19</t>
+          <t>1,62; 5,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,76</t>
+          <t>0,26; 1,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,16</t>
+          <t>2,26; 5,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,84</t>
+          <t>0,83; 2,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -1119,44 +1119,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,87; 6,56</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 3,29</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 4,65</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 3,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 4,55</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 2,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13,81%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>11,42; 13,66</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7,17; 14,98</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 36,75</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>7,01; 8,73</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 4,62</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 4,2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>9,39; 10,82</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 9,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 21,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1167,6 +1247,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,26; 31,31</t>
+          <t>22,37; 30,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 19,32</t>
+          <t>7,62; 18,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,53; 24,39</t>
+          <t>16,77; 24,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 16,62</t>
+          <t>6,88; 15,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,15; 27,13</t>
+          <t>20,65; 26,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 16,36</t>
+          <t>8,56; 16,05</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,73; 25,69</t>
+          <t>18,92; 25,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 18,94</t>
+          <t>10,3; 18,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,64</t>
+          <t>9,54; 14,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,48</t>
+          <t>1,9; 5,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,94; 19,5</t>
+          <t>15,06; 19,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,95</t>
+          <t>5,91; 10,81</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,68</t>
+          <t>9,5; 14,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,5</t>
+          <t>5,48; 10,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,39</t>
+          <t>6,08; 10,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,95</t>
+          <t>3,68; 6,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 11,69</t>
+          <t>8,58; 11,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,02</t>
+          <t>5,25; 8,13</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,23</t>
+          <t>5,99; 10,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 66,07</t>
+          <t>5,64; 69,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,93</t>
+          <t>3,65; 7,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,66</t>
+          <t>2,52; 4,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,92</t>
+          <t>5,22; 8,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 51,38</t>
+          <t>4,5; 53,47</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,77</t>
+          <t>3,46; 7,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,99</t>
+          <t>2,78; 6,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,84</t>
+          <t>2,74; 6,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,78</t>
+          <t>0,93; 2,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,41</t>
+          <t>3,56; 6,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,96</t>
+          <t>2,1; 3,96</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,04</t>
+          <t>2,05; 6,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,19</t>
+          <t>2,11; 5,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,1</t>
+          <t>1,65; 5,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,75</t>
+          <t>0,26; 1,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,07</t>
+          <t>2,18; 4,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,74</t>
+          <t>0,94; 2,69</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,56</t>
+          <t>1,65; 6,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,29</t>
+          <t>0,76; 3,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,65</t>
+          <t>0,98; 4,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,18</t>
+          <t>1,09; 3,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,55</t>
+          <t>1,69; 4,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,77</t>
+          <t>1,16; 2,74</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,66</t>
+          <t>11,34; 13,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,92; 36,75</t>
+          <t>6,79; 33,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,01; 8,73</t>
+          <t>6,95; 8,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,2</t>
+          <t>2,76; 4,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,39; 10,82</t>
+          <t>9,45; 10,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,07; 21,91</t>
+          <t>4,95; 19,7</t>
         </is>
       </c>
     </row>
@@ -1252,4 +1253,1071 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume comida rápida al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>112573</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>51100</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>80621</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33629</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>193193</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>84729</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>93854; 129578</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30478; 74995</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>66204; 98004</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21445; 48726</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>168116; 218094</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60880; 114184</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>131178</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60017</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>66823</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17131</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>198001</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77148</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>111571; 152724</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>43627; 78439</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53693; 84013</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9709; 29204</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>173556; 223990</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>55288; 101060</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>78682</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41336</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53009</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>28167</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>131690</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69503</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63213; 96149</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29410; 54657</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40013; 67009</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19903; 36771</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>113577; 156404</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56498; 87530</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>50425</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>284819</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33194</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24909</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>83619</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>309728</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38623; 66413</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>49966; 614807</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23592; 45874</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17881; 34601</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67398; 103360</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>71787; 852872</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24672</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23022</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22388</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8809</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47060</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31832</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16261; 36694</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15545; 34655</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13557; 33769</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5083; 13998</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34393; 63736</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23173; 43815</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12428</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12409</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11435</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5536</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>23863</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17944</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6797; 20771</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7771; 18672</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6213; 19791</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1593; 10712</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>15416; 33939</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9200; 26271</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8978</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8834</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>8137</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>17812</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>12695</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4142; 15841</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2138; 9684</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3787; 16553</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4645; 13827</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10781; 27559</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8209; 19358</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>418936</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>477261</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>276303</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>126318</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>695239</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>603580</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>382726; 461225</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>234801; 1142864</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>244622; 308418</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>100909; 150807</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>651861; 746544</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>351851; 1400428</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>